--- a/ChenChiehHsien2024P12PlayLog.xlsx
+++ b/ChenChiehHsien2024P12PlayLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39e4b17dd3a16537/litigations/司法院拒絕提供資訊/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39e4b17dd3a16537/litigations/judicial_rejects_govinf/flask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{1AA7541C-0E04-4943-BB35-617AAE47A03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{060EB361-A589-4AFC-8037-B35DD0EF12B9}"/>
+  <xr:revisionPtr revIDLastSave="673" documentId="8_{1AA7541C-0E04-4943-BB35-617AAE47A03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C39EB3F9-1A30-4213-B1BF-16C76134AEB3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91F94B1D-46B0-4624-B1C8-FB7FC6A8C32F}"/>
+    <workbookView xWindow="22932" yWindow="348" windowWidth="23256" windowHeight="12456" xr2:uid="{91F94B1D-46B0-4624-B1C8-FB7FC6A8C32F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="101">
   <si>
     <t>KOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,38 @@
   </si>
   <si>
     <t>strikeFaced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runnersOnBase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runnersOnBase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runnersOnBase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitcherLeagueFgn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitcherLeagueInd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitcherLeagueA+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitcherLeagueAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitcherLeagueAAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,27 +832,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2BA39A-72C1-4F44-835D-D4559CA8F170}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="18" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="26" max="28" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -843,46 +875,70 @@
         <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,41 +960,65 @@
       <c r="G2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>4</v>
       </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -960,35 +1040,59 @@
       <c r="G3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2">
+      <c r="N3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1010,41 +1114,65 @@
       <c r="G4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
         <v>4</v>
       </c>
-      <c r="S4" s="2">
+      <c r="AA4" s="2">
         <v>2</v>
       </c>
-      <c r="T4" s="2">
+      <c r="AB4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,39 +1194,63 @@
       <c r="G5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2">
-        <v>3</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="2">
         <v>2</v>
       </c>
-      <c r="T5" s="2">
+      <c r="AB5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1120,45 +1272,69 @@
       <c r="G6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="T6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
         <v>6</v>
       </c>
-      <c r="S6" s="2">
+      <c r="AA6" s="2">
         <v>4</v>
       </c>
-      <c r="T6" s="2">
+      <c r="AB6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1180,37 +1356,61 @@
       <c r="G7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
         <v>2</v>
       </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1232,37 +1432,61 @@
       <c r="G8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
+      <c r="T8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
         <v>2</v>
       </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1284,35 +1508,59 @@
       <c r="G9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="S9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1334,35 +1582,59 @@
       <c r="G10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
       <c r="R10" s="2">
         <v>1</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="S10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1384,37 +1656,61 @@
       <c r="G11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2">
+      <c r="T11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2">
         <v>2</v>
       </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1436,37 +1732,61 @@
       <c r="G12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2">
         <v>2</v>
       </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1488,47 +1808,71 @@
       <c r="G13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="T13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="2">
+      <c r="Z13" s="2">
         <v>7</v>
       </c>
-      <c r="S13" s="2">
+      <c r="AA13" s="2">
         <v>5</v>
       </c>
-      <c r="T13" s="2">
+      <c r="AB13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1550,45 +1894,69 @@
       <c r="G14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="T14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2">
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2">
         <v>6</v>
       </c>
-      <c r="S14" s="2">
-        <v>3</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="AA14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1610,41 +1978,65 @@
       <c r="G15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="2">
+      <c r="N15" s="2">
         <v>13</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
         <v>4</v>
       </c>
-      <c r="S15" s="2">
-        <v>3</v>
-      </c>
-      <c r="T15" s="2">
+      <c r="AA15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1666,45 +2058,69 @@
       <c r="G16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
         <v>5</v>
       </c>
-      <c r="S16" s="2">
-        <v>3</v>
-      </c>
-      <c r="T16" s="2">
+      <c r="AA16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1726,35 +2142,59 @@
       <c r="G17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="2">
+      <c r="N17" s="2">
         <v>12</v>
       </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1776,35 +2216,59 @@
       <c r="G18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2">
-        <v>1</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1</v>
-      </c>
-      <c r="T18" s="2">
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1826,45 +2290,69 @@
       <c r="G19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2">
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2">
         <v>6</v>
       </c>
-      <c r="S19" s="2">
-        <v>3</v>
-      </c>
-      <c r="T19" s="2">
+      <c r="AA19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1886,35 +2374,59 @@
       <c r="G20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2">
-        <v>1</v>
-      </c>
-      <c r="T20" s="2">
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1936,41 +2448,65 @@
       <c r="G21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="U21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
         <v>4</v>
       </c>
-      <c r="S21" s="2">
+      <c r="AA21" s="2">
         <v>2</v>
       </c>
-      <c r="T21" s="2">
+      <c r="AB21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1992,41 +2528,65 @@
       <c r="G22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="T22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
         <v>4</v>
       </c>
-      <c r="S22" s="2">
+      <c r="AA22" s="2">
         <v>2</v>
       </c>
-      <c r="T22" s="2">
+      <c r="AB22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -2048,33 +2608,57 @@
       <c r="G23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
       <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -2096,37 +2680,61 @@
       <c r="G24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2">
         <v>2</v>
       </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2148,35 +2756,59 @@
       <c r="G25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2">
-        <v>1</v>
-      </c>
-      <c r="S25" s="2">
-        <v>1</v>
-      </c>
-      <c r="T25" s="2">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -2198,33 +2830,57 @@
       <c r="G26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2246,45 +2902,69 @@
       <c r="G27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="2">
+      <c r="N27" s="2">
         <v>13</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="X27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2">
         <v>6</v>
       </c>
-      <c r="S27" s="2">
-        <v>3</v>
-      </c>
-      <c r="T27" s="2">
+      <c r="AA27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -2306,45 +2986,69 @@
       <c r="G28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="2">
+      <c r="N28" s="2">
         <v>12</v>
       </c>
-      <c r="J28" s="2">
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
         <v>4</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="S28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="X28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2">
         <v>6</v>
       </c>
-      <c r="S28" s="2">
-        <v>3</v>
-      </c>
-      <c r="T28" s="2">
+      <c r="AA28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2366,45 +3070,69 @@
       <c r="G29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="2">
+      <c r="N29" s="2">
         <v>12</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="T29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="W29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="X29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2">
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2">
         <v>6</v>
       </c>
-      <c r="S29" s="2">
-        <v>3</v>
-      </c>
-      <c r="T29" s="2">
+      <c r="AA29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2426,35 +3154,59 @@
       <c r="G30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="T30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2">
-        <v>3</v>
-      </c>
-      <c r="S30" s="2">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="2">
         <v>2</v>
       </c>
-      <c r="T30" s="2">
+      <c r="AB30" s="2">
         <v>1</v>
       </c>
     </row>
